--- a/tbg/Assets/Excel/config/IEquipment.xlsx
+++ b/tbg/Assets/Excel/config/IEquipment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="84">
   <si>
     <t>guid</t>
   </si>
@@ -111,9 +111,6 @@
     <t>accgrouth</t>
   </si>
   <si>
-    <t>equippablePositions</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
   </si>
   <si>
     <t>580</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>1.0</t>
@@ -271,6 +265,26 @@
   </si>
   <si>
     <t>exp_blockDamageRate</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equippablePosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -679,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -690,165 +704,165 @@
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Y1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AF1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AH1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AL1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AM1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AN1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AO1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AP1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AQ1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AR1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AS1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AT1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AU1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AV1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AW1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AX1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AY1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AZ1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -941,383 +955,383 @@
         <v>29</v>
       </c>
       <c r="AF2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="AG2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>63</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>64</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>65</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>68</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>69</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>70</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>71</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>72</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>74</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>76</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>77</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>78</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF3" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AP3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AQ3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AR3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AS3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AT3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AU3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AV3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AW3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AX3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AY3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AZ3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
         <v>41</v>
       </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>42</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
         <v>43</v>
       </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>44</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
         <v>45</v>
       </c>
-      <c r="S4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>46</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" t="s">
-        <v>51</v>
-      </c>
       <c r="AE4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AH4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AJ4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AO4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AP4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AQ4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AT4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AU4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AV4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AX4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AY4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AZ4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.2">
@@ -1325,157 +1339,157 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>40</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
         <v>41</v>
       </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>42</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
         <v>43</v>
       </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>44</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s">
         <v>45</v>
       </c>
-      <c r="S5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>46</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>48</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s">
         <v>49</v>
       </c>
-      <c r="AB5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>50</v>
       </c>
-      <c r="AD5" t="s">
-        <v>51</v>
-      </c>
       <c r="AE5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="AG5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AH5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AJ5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AO5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AP5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AQ5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AT5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AU5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AV5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AX5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AY5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
